--- a/Desarrollo/Parking Soft/Gestion/PKS-C.xlsx
+++ b/Desarrollo/Parking Soft/Gestion/PKS-C.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GCSW\GCS-G3\Desarrollo\Parking Soft\Gestion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B99A505-0474-4A0B-A3E0-FAC73CFFD4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2085" yWindow="1395" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Cronograma" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Roles" sheetId="2" r:id="rId5"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -348,47 +357,53 @@
   </si>
   <si>
     <t>Sierra Godoy, Paul Brayan</t>
+  </si>
+  <si>
+    <t>https://github.com/julianntorres/GCS-G3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -397,7 +412,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -437,25 +452,36 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -470,13 +496,19 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -486,156 +518,128 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="3" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -825,952 +829,960 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="41.57"/>
-    <col customWidth="1" min="2" max="2" width="38.71"/>
-    <col customWidth="1" min="3" max="3" width="40.14"/>
-    <col customWidth="1" min="4" max="4" width="46.0"/>
-    <col customWidth="1" min="5" max="6" width="11.29"/>
-    <col customWidth="1" min="7" max="8" width="12.0"/>
-    <col customWidth="1" min="9" max="10" width="11.57"/>
-    <col customWidth="1" min="11" max="11" width="24.71"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="9" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="10">
-        <v>44480.0</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="7">
+        <v>44480</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11">
-        <v>44487.0</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="10">
-        <v>44487.0</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="8">
+        <v>44487</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="7">
+        <v>44487</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11">
-        <v>44578.0</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="10">
-        <v>44494.0</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="12" t="s">
+      <c r="B7" s="8">
+        <v>44578</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="7">
+        <v>44494</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="1"/>
+      <c r="J9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="16">
-        <v>44486.0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>44491.0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="J10" s="10">
-        <v>44515.0</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="E10" s="13">
+        <v>44486</v>
+      </c>
+      <c r="F10" s="14">
+        <v>44491</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="J10" s="7">
+        <v>44515</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16">
-        <v>44494.0</v>
-      </c>
-      <c r="F11" s="20">
-        <v>44496.0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="10">
-        <v>44522.0</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="E11" s="13">
+        <v>44494</v>
+      </c>
+      <c r="F11" s="17">
+        <v>44496</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="J11" s="7">
+        <v>44522</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="21">
-        <v>44496.0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>44500.0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="10">
-        <v>44529.0</v>
-      </c>
-      <c r="K12" s="22" t="s">
+      <c r="E12" s="18">
+        <v>44496</v>
+      </c>
+      <c r="F12" s="13">
+        <v>44500</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="J12" s="7">
+        <v>44529</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:11" ht="15">
+      <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="21">
-        <v>44496.0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>44500.0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="J13" s="12" t="s">
+      <c r="E13" s="18">
+        <v>44496</v>
+      </c>
+      <c r="F13" s="13">
+        <v>44500</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="J13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="23">
-        <v>44498.0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>44499.0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="J14" s="10">
-        <v>44543.0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="E14" s="20">
+        <v>44498</v>
+      </c>
+      <c r="F14" s="20">
+        <v>44499</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="J14" s="7">
+        <v>44543</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="26">
-        <v>44499.0</v>
-      </c>
-      <c r="F15" s="26">
-        <v>44502.0</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="10">
-        <v>44550.0</v>
-      </c>
-      <c r="K15" s="28" t="s">
+      <c r="E15" s="23">
+        <v>44499</v>
+      </c>
+      <c r="F15" s="23">
+        <v>44502</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="J15" s="7">
+        <v>44550</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:11" ht="15">
+      <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="16">
-        <v>44499.0</v>
-      </c>
-      <c r="F16" s="23">
-        <v>44502.0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="J16" s="10">
-        <v>44557.0</v>
-      </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="E16" s="13">
+        <v>44499</v>
+      </c>
+      <c r="F16" s="20">
+        <v>44502</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="J16" s="7">
+        <v>44557</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="16">
-        <v>44499.0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>44502.0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="J17" s="12" t="s">
+      <c r="E17" s="13">
+        <v>44499</v>
+      </c>
+      <c r="F17" s="23">
+        <v>44502</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="J17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15">
+      <c r="A18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="16">
-        <v>44500.0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>44502.0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="J18" s="10">
-        <v>44571.0</v>
-      </c>
-      <c r="K18" s="29" t="s">
+      <c r="E18" s="13">
+        <v>44500</v>
+      </c>
+      <c r="F18" s="20">
+        <v>44502</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="J18" s="7">
+        <v>44571</v>
+      </c>
+      <c r="K18" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="23">
-        <v>44502.0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>44505.0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="J19" s="10">
-        <v>44578.0</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="20">
+        <v>44502</v>
+      </c>
+      <c r="F19" s="20">
+        <v>44505</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="J19" s="7">
+        <v>44578</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31">
-        <v>44486.0</v>
-      </c>
-      <c r="F20" s="31">
-        <v>44505.0</v>
-      </c>
-      <c r="G20" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="J20" s="10">
-        <v>44585.0</v>
-      </c>
-      <c r="K20" s="22" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28">
+        <v>44486</v>
+      </c>
+      <c r="F20" s="28">
+        <v>44505</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="J20" s="7">
+        <v>44585</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="33">
-        <v>44506.0</v>
-      </c>
-      <c r="F21" s="33">
-        <v>44513.0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="E21" s="30">
+        <v>44506</v>
+      </c>
+      <c r="F21" s="30">
+        <v>44513</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="33">
-        <v>44514.0</v>
-      </c>
-      <c r="F22" s="33">
-        <v>44551.0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="E22" s="30">
+        <v>44514</v>
+      </c>
+      <c r="F22" s="30">
+        <v>44551</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15">
+      <c r="A23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="33">
-        <v>44521.0</v>
-      </c>
-      <c r="F23" s="33">
-        <v>44523.0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="30">
+        <v>44521</v>
+      </c>
+      <c r="F23" s="30">
+        <v>44523</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="A24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="34">
-        <v>44506.0</v>
-      </c>
-      <c r="F24" s="35">
-        <v>44523.0</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31">
+        <v>44506</v>
+      </c>
+      <c r="F24" s="32">
+        <v>44523</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15">
+      <c r="A25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="33">
-        <v>44526.0</v>
-      </c>
-      <c r="F25" s="33">
-        <v>44534.0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="E25" s="30">
+        <v>44526</v>
+      </c>
+      <c r="F25" s="30">
+        <v>44534</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="15">
+      <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="33">
-        <v>44900.0</v>
-      </c>
-      <c r="F26" s="33">
-        <v>44542.0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="E26" s="30">
+        <v>44900</v>
+      </c>
+      <c r="F26" s="30">
+        <v>44542</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15">
+      <c r="A27" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="33">
-        <v>44542.0</v>
-      </c>
-      <c r="F27" s="33">
-        <v>44548.0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="E27" s="30">
+        <v>44542</v>
+      </c>
+      <c r="F27" s="30">
+        <v>44548</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="15">
+      <c r="A28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="33">
-        <v>44542.0</v>
-      </c>
-      <c r="F28" s="33">
-        <v>44548.0</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="E28" s="30">
+        <v>44542</v>
+      </c>
+      <c r="F28" s="30">
+        <v>44548</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15">
+      <c r="A29" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="33">
-        <v>44549.0</v>
-      </c>
-      <c r="F29" s="33">
-        <v>44550.0</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="30">
+        <v>44549</v>
+      </c>
+      <c r="F29" s="30">
+        <v>44550</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15">
+      <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="35">
-        <v>44526.0</v>
-      </c>
-      <c r="F30" s="35">
-        <v>44550.0</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35">
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39">
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="32">
+        <v>44526</v>
+      </c>
+      <c r="F30" s="32">
+        <v>44550</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="5:11" ht="15">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="5:11" ht="15">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="5:11" ht="15">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="5:11" ht="15">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="5:11" ht="15">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="5:11" ht="15">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="5:11" ht="15">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="5:11" ht="15">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.57"/>
-    <col customWidth="1" min="2" max="2" width="26.43"/>
-    <col customWidth="1" min="3" max="3" width="25.57"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="35" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1787,6 +1799,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Desarrollo/Parking Soft/Gestion/PKS-C.xlsx
+++ b/Desarrollo/Parking Soft/Gestion/PKS-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GCSW\GCS-G3\Desarrollo\Parking Soft\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B99A505-0474-4A0B-A3E0-FAC73CFFD4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3EC40-603E-47B6-A0A3-C62BD99083DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1395" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Enfoque de desarrollo: </t>
   </si>
   <si>
-    <t>Agile</t>
-  </si>
-  <si>
     <t>Inicio:</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>https://github.com/julianntorres/GCS-G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile </t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -520,11 +520,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -535,9 +587,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,7 +619,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,6 +659,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,10 +896,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -855,29 +912,30 @@
     <col min="7" max="8" width="12" customWidth="1"/>
     <col min="9" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -889,7 +947,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,10 +959,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -916,33 +974,33 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="7">
+      <c r="J5" s="36">
         <v>44480</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
         <v>44487</v>
       </c>
       <c r="E6" s="1"/>
@@ -950,29 +1008,29 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>44487</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
-        <v>44578</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44550</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>44494</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -982,389 +1040,389 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H9" s="1"/>
+      <c r="J9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12">
+        <v>44486</v>
+      </c>
+      <c r="F10" s="13">
+        <v>44491</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="J10" s="35">
+        <v>44515</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13">
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12">
+        <v>44494</v>
+      </c>
+      <c r="F11" s="16">
+        <v>44496</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="J11" s="37">
+        <v>44522</v>
+      </c>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17">
+        <v>44496</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44500</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="J12" s="38">
+        <v>44529</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17">
+        <v>44496</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44500</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="J13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="18">
+        <v>44498</v>
+      </c>
+      <c r="F14" s="18">
+        <v>44499</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="J14" s="6">
+        <v>44543</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="21">
+        <v>44499</v>
+      </c>
+      <c r="F15" s="21">
+        <v>44502</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="J15" s="6">
+        <v>44550</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44499</v>
+      </c>
+      <c r="F16" s="18">
+        <v>44502</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="J16" s="6">
+        <v>44557</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44499</v>
+      </c>
+      <c r="F17" s="21">
+        <v>44502</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="J17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="15">
+      <c r="A18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12">
+        <v>44500</v>
+      </c>
+      <c r="F18" s="18">
+        <v>44502</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="J18" s="35">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="18">
+        <v>44502</v>
+      </c>
+      <c r="F19" s="18">
+        <v>44505</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="J19" s="37">
+        <v>44578</v>
+      </c>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
         <v>44486</v>
       </c>
-      <c r="F10" s="14">
-        <v>44491</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="7">
-        <v>44515</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="13">
-        <v>44494</v>
-      </c>
-      <c r="F11" s="17">
-        <v>44496</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="F20" s="26">
+        <v>44505</v>
+      </c>
+      <c r="G20" s="27">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="J11" s="7">
-        <v>44522</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="18">
-        <v>44496</v>
-      </c>
-      <c r="F12" s="13">
-        <v>44500</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="H20" s="1"/>
+      <c r="J20" s="38">
+        <v>44585</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="28">
+        <v>44506</v>
+      </c>
+      <c r="F21" s="28">
+        <v>44513</v>
+      </c>
+      <c r="G21" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="J12" s="7">
-        <v>44529</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="18">
-        <v>44496</v>
-      </c>
-      <c r="F13" s="13">
-        <v>44500</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="J13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="20">
-        <v>44498</v>
-      </c>
-      <c r="F14" s="20">
-        <v>44499</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="J14" s="7">
-        <v>44543</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="23">
-        <v>44499</v>
-      </c>
-      <c r="F15" s="23">
-        <v>44502</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="J15" s="7">
-        <v>44550</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="13">
-        <v>44499</v>
-      </c>
-      <c r="F16" s="20">
-        <v>44502</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="J16" s="7">
-        <v>44557</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="13">
-        <v>44499</v>
-      </c>
-      <c r="F17" s="23">
-        <v>44502</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="J17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="13">
-        <v>44500</v>
-      </c>
-      <c r="F18" s="20">
-        <v>44502</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="J18" s="7">
-        <v>44571</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="20">
-        <v>44502</v>
-      </c>
-      <c r="F19" s="20">
-        <v>44505</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="7">
-        <v>44578</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28">
-        <v>44486</v>
-      </c>
-      <c r="F20" s="28">
-        <v>44505</v>
-      </c>
-      <c r="G20" s="29">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="J20" s="7">
-        <v>44585</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15">
+      <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="30">
-        <v>44506</v>
-      </c>
-      <c r="F21" s="30">
-        <v>44513</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>44514</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="28">
         <v>44551</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
@@ -1372,21 +1430,21 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="30">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="28">
         <v>44521</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="28">
         <v>44523</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
@@ -1394,43 +1452,43 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15">
-      <c r="A24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="31">
+      <c r="A24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="29">
         <v>44506</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="30">
         <v>44523</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="30">
+      <c r="D25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="28">
         <v>44526</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="28">
         <v>44534</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
@@ -1438,25 +1496,25 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="15">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="30">
+      <c r="D26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="28">
         <v>44900</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="28">
         <v>44542</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>0</v>
       </c>
       <c r="H26" s="1"/>
@@ -1464,25 +1522,25 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>44542</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="28">
         <v>44548</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>0</v>
       </c>
       <c r="H27" s="1"/>
@@ -1490,25 +1548,25 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="15">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>44542</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="28">
         <v>44548</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>0</v>
       </c>
       <c r="H28" s="1"/>
@@ -1516,39 +1574,39 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="15">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="30">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="28">
         <v>44549</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="28">
         <v>44550</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15">
-      <c r="A30" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="32">
+      <c r="A30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="30">
         <v>44526</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="30">
         <v>44550</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1670,120 +1728,120 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:4" ht="14.25">
+      <c r="A1" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="B2" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="34" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="33" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="35" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="35" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="33" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="35" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="35" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
